--- a/natmiOut/OldD2/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>45.4219360171216</v>
+        <v>45.45060549999999</v>
       </c>
       <c r="H2">
-        <v>45.4219360171216</v>
+        <v>90.90121099999999</v>
       </c>
       <c r="I2">
-        <v>0.1126280358418541</v>
+        <v>0.1092442560256595</v>
       </c>
       <c r="J2">
-        <v>0.1126280358418541</v>
+        <v>0.08146511437786726</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.28848775673345</v>
+        <v>1.3010185</v>
       </c>
       <c r="N2">
-        <v>1.28848775673345</v>
+        <v>2.602037</v>
       </c>
       <c r="O2">
-        <v>0.2960704448792887</v>
+        <v>0.2843699513758341</v>
       </c>
       <c r="P2">
-        <v>0.2960704448792887</v>
+        <v>0.2311148048688678</v>
       </c>
       <c r="Q2">
-        <v>58.52560844519131</v>
+        <v>59.13207859170175</v>
       </c>
       <c r="R2">
-        <v>58.52560844519131</v>
+        <v>236.528314366807</v>
       </c>
       <c r="S2">
-        <v>0.03334583267757823</v>
+        <v>0.03106578377410597</v>
       </c>
       <c r="T2">
-        <v>0.03334583267757823</v>
+        <v>0.01882779401306078</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>45.4219360171216</v>
+        <v>45.45060549999999</v>
       </c>
       <c r="H3">
-        <v>45.4219360171216</v>
+        <v>90.90121099999999</v>
       </c>
       <c r="I3">
-        <v>0.1126280358418541</v>
+        <v>0.1092442560256595</v>
       </c>
       <c r="J3">
-        <v>0.1126280358418541</v>
+        <v>0.08146511437786726</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.400165852290775</v>
+        <v>0.4079646666666667</v>
       </c>
       <c r="N3">
-        <v>0.400165852290775</v>
+        <v>1.223894</v>
       </c>
       <c r="O3">
-        <v>0.09195064624718739</v>
+        <v>0.08917082456787383</v>
       </c>
       <c r="P3">
-        <v>0.09195064624718739</v>
+        <v>0.1087071486647492</v>
       </c>
       <c r="Q3">
-        <v>18.17630773898852</v>
+        <v>18.54224112260567</v>
       </c>
       <c r="R3">
-        <v>18.17630773898852</v>
+        <v>111.253446735634</v>
       </c>
       <c r="S3">
-        <v>0.01035622068120987</v>
+        <v>0.009741400389111978</v>
       </c>
       <c r="T3">
-        <v>0.01035622068120987</v>
+        <v>0.008855840299665614</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>45.4219360171216</v>
+        <v>45.45060549999999</v>
       </c>
       <c r="H4">
-        <v>45.4219360171216</v>
+        <v>90.90121099999999</v>
       </c>
       <c r="I4">
-        <v>0.1126280358418541</v>
+        <v>0.1092442560256595</v>
       </c>
       <c r="J4">
-        <v>0.1126280358418541</v>
+        <v>0.08146511437786726</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.222145268297615</v>
+        <v>0.2783573333333333</v>
       </c>
       <c r="N4">
-        <v>0.222145268297615</v>
+        <v>0.835072</v>
       </c>
       <c r="O4">
-        <v>0.05104483769364199</v>
+        <v>0.06084191834713099</v>
       </c>
       <c r="P4">
-        <v>0.05104483769364199</v>
+        <v>0.07417169791646126</v>
       </c>
       <c r="Q4">
-        <v>10.09026816312058</v>
+        <v>12.65150934536533</v>
       </c>
       <c r="R4">
-        <v>10.09026816312058</v>
+        <v>75.909056072192</v>
       </c>
       <c r="S4">
-        <v>0.005749079809301136</v>
+        <v>0.006646630105006249</v>
       </c>
       <c r="T4">
-        <v>0.005749079809301136</v>
+        <v>0.006042405854365135</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>45.4219360171216</v>
+        <v>45.45060549999999</v>
       </c>
       <c r="H5">
-        <v>45.4219360171216</v>
+        <v>90.90121099999999</v>
       </c>
       <c r="I5">
-        <v>0.1126280358418541</v>
+        <v>0.1092442560256595</v>
       </c>
       <c r="J5">
-        <v>0.1126280358418541</v>
+        <v>0.08146511437786726</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.390209524763159</v>
+        <v>0.392036</v>
       </c>
       <c r="N5">
-        <v>0.390209524763159</v>
+        <v>1.176108</v>
       </c>
       <c r="O5">
-        <v>0.08966286795433165</v>
+        <v>0.08568921829902994</v>
       </c>
       <c r="P5">
-        <v>0.08966286795433165</v>
+        <v>0.1044627616458622</v>
       </c>
       <c r="Q5">
-        <v>17.72407206706364</v>
+        <v>17.818273577798</v>
       </c>
       <c r="R5">
-        <v>17.72407206706364</v>
+        <v>106.909641466788</v>
       </c>
       <c r="S5">
-        <v>0.0100985527056439</v>
+        <v>0.009361054902497855</v>
       </c>
       <c r="T5">
-        <v>0.0100985527056439</v>
+        <v>0.008510070825708047</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>45.4219360171216</v>
+        <v>45.45060549999999</v>
       </c>
       <c r="H6">
-        <v>45.4219360171216</v>
+        <v>90.90121099999999</v>
       </c>
       <c r="I6">
-        <v>0.1126280358418541</v>
+        <v>0.1092442560256595</v>
       </c>
       <c r="J6">
-        <v>0.1126280358418541</v>
+        <v>0.08146511437786726</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.93490786483064</v>
+        <v>1.030093333333333</v>
       </c>
       <c r="N6">
-        <v>0.93490786483064</v>
+        <v>3.090279999999999</v>
       </c>
       <c r="O6">
-        <v>0.2148243830917634</v>
+        <v>0.2251525179023748</v>
       </c>
       <c r="P6">
-        <v>0.2148243830917634</v>
+        <v>0.2744809006136978</v>
       </c>
       <c r="Q6">
-        <v>42.46532521824111</v>
+        <v>46.81836572151332</v>
       </c>
       <c r="R6">
-        <v>42.46532521824111</v>
+        <v>280.9101943290799</v>
       </c>
       <c r="S6">
-        <v>0.02419524831856333</v>
+        <v>0.02459661931054892</v>
       </c>
       <c r="T6">
-        <v>0.02419524831856333</v>
+        <v>0.02236061796303491</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.4219360171216</v>
+        <v>45.45060549999999</v>
       </c>
       <c r="H7">
-        <v>45.4219360171216</v>
+        <v>90.90121099999999</v>
       </c>
       <c r="I7">
-        <v>0.1126280358418541</v>
+        <v>0.1092442560256595</v>
       </c>
       <c r="J7">
-        <v>0.1126280358418541</v>
+        <v>0.08146511437786726</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.11604718981771</v>
+        <v>1.1656215</v>
       </c>
       <c r="N7">
-        <v>1.11604718981771</v>
+        <v>2.331243</v>
       </c>
       <c r="O7">
-        <v>0.2564468201337867</v>
+        <v>0.2547755695077563</v>
       </c>
       <c r="P7">
-        <v>0.2564468201337867</v>
+        <v>0.2070626862903617</v>
       </c>
       <c r="Q7">
-        <v>50.69302404798839</v>
+        <v>52.97820295881825</v>
       </c>
       <c r="R7">
-        <v>50.69302404798839</v>
+        <v>211.912811835273</v>
       </c>
       <c r="S7">
-        <v>0.02888310164955765</v>
+        <v>0.02783276754438854</v>
       </c>
       <c r="T7">
-        <v>0.02888310164955765</v>
+        <v>0.01686838542203276</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>76.4364136702626</v>
+        <v>80.25908033333333</v>
       </c>
       <c r="H8">
-        <v>76.4364136702626</v>
+        <v>240.777241</v>
       </c>
       <c r="I8">
-        <v>0.1895314003179442</v>
+        <v>0.1929092786303725</v>
       </c>
       <c r="J8">
-        <v>0.1895314003179442</v>
+        <v>0.2157831041178573</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.28848775673345</v>
+        <v>1.3010185</v>
       </c>
       <c r="N8">
-        <v>1.28848775673345</v>
+        <v>2.602037</v>
       </c>
       <c r="O8">
-        <v>0.2960704448792887</v>
+        <v>0.2843699513758341</v>
       </c>
       <c r="P8">
-        <v>0.2960704448792887</v>
+        <v>0.2311148048688678</v>
       </c>
       <c r="Q8">
-        <v>98.48738318274667</v>
+        <v>104.4185483066528</v>
       </c>
       <c r="R8">
-        <v>98.48738318274667</v>
+        <v>626.511289839917</v>
       </c>
       <c r="S8">
-        <v>0.05611464601072831</v>
+        <v>0.05485760218406627</v>
       </c>
       <c r="T8">
-        <v>0.05611464601072831</v>
+        <v>0.04987067000219716</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>76.4364136702626</v>
+        <v>80.25908033333333</v>
       </c>
       <c r="H9">
-        <v>76.4364136702626</v>
+        <v>240.777241</v>
       </c>
       <c r="I9">
-        <v>0.1895314003179442</v>
+        <v>0.1929092786303725</v>
       </c>
       <c r="J9">
-        <v>0.1895314003179442</v>
+        <v>0.2157831041178573</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.400165852290775</v>
+        <v>0.4079646666666667</v>
       </c>
       <c r="N9">
-        <v>0.400165852290775</v>
+        <v>1.223894</v>
       </c>
       <c r="O9">
-        <v>0.09195064624718739</v>
+        <v>0.08917082456787383</v>
       </c>
       <c r="P9">
-        <v>0.09195064624718739</v>
+        <v>0.1087071486647492</v>
       </c>
       <c r="Q9">
-        <v>30.58724262241088</v>
+        <v>32.74286895516155</v>
       </c>
       <c r="R9">
-        <v>30.58724262241088</v>
+        <v>294.685820596454</v>
       </c>
       <c r="S9">
-        <v>0.01742753474336935</v>
+        <v>0.01720187944226404</v>
       </c>
       <c r="T9">
-        <v>0.01742753474336935</v>
+        <v>0.02345716597868096</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>76.4364136702626</v>
+        <v>80.25908033333333</v>
       </c>
       <c r="H10">
-        <v>76.4364136702626</v>
+        <v>240.777241</v>
       </c>
       <c r="I10">
-        <v>0.1895314003179442</v>
+        <v>0.1929092786303725</v>
       </c>
       <c r="J10">
-        <v>0.1895314003179442</v>
+        <v>0.2157831041178573</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.222145268297615</v>
+        <v>0.2783573333333333</v>
       </c>
       <c r="N10">
-        <v>0.222145268297615</v>
+        <v>0.835072</v>
       </c>
       <c r="O10">
-        <v>0.05104483769364199</v>
+        <v>0.06084191834713099</v>
       </c>
       <c r="P10">
-        <v>0.05104483769364199</v>
+        <v>0.07417169791646126</v>
       </c>
       <c r="Q10">
-        <v>16.97998762248797</v>
+        <v>22.34070357737244</v>
       </c>
       <c r="R10">
-        <v>16.97998762248797</v>
+        <v>201.066332196352</v>
       </c>
       <c r="S10">
-        <v>0.009674599567078149</v>
+        <v>0.01173697057883307</v>
       </c>
       <c r="T10">
-        <v>0.009674599567078149</v>
+        <v>0.01600499921410602</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>76.4364136702626</v>
+        <v>80.25908033333333</v>
       </c>
       <c r="H11">
-        <v>76.4364136702626</v>
+        <v>240.777241</v>
       </c>
       <c r="I11">
-        <v>0.1895314003179442</v>
+        <v>0.1929092786303725</v>
       </c>
       <c r="J11">
-        <v>0.1895314003179442</v>
+        <v>0.2157831041178573</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.390209524763159</v>
+        <v>0.392036</v>
       </c>
       <c r="N11">
-        <v>0.390209524763159</v>
+        <v>1.176108</v>
       </c>
       <c r="O11">
-        <v>0.08966286795433165</v>
+        <v>0.08568921829902994</v>
       </c>
       <c r="P11">
-        <v>0.08966286795433165</v>
+        <v>0.1044627616458622</v>
       </c>
       <c r="Q11">
-        <v>29.8262166528734</v>
+        <v>31.46444881755867</v>
       </c>
       <c r="R11">
-        <v>29.8262166528734</v>
+        <v>283.180039358028</v>
       </c>
       <c r="S11">
-        <v>0.0169939289199074</v>
+        <v>0.01653024528846638</v>
       </c>
       <c r="T11">
-        <v>0.0169939289199074</v>
+        <v>0.02254129897266798</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>76.4364136702626</v>
+        <v>80.25908033333333</v>
       </c>
       <c r="H12">
-        <v>76.4364136702626</v>
+        <v>240.777241</v>
       </c>
       <c r="I12">
-        <v>0.1895314003179442</v>
+        <v>0.1929092786303725</v>
       </c>
       <c r="J12">
-        <v>0.1895314003179442</v>
+        <v>0.2157831041178573</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.93490786483064</v>
+        <v>1.030093333333333</v>
       </c>
       <c r="N12">
-        <v>0.93490786483064</v>
+        <v>3.090279999999999</v>
       </c>
       <c r="O12">
-        <v>0.2148243830917634</v>
+        <v>0.2251525179023748</v>
       </c>
       <c r="P12">
-        <v>0.2148243830917634</v>
+        <v>0.2744809006136978</v>
       </c>
       <c r="Q12">
-        <v>71.46100429977675</v>
+        <v>82.67434359083109</v>
       </c>
       <c r="R12">
-        <v>71.46100429977675</v>
+        <v>744.0690923174799</v>
       </c>
       <c r="S12">
-        <v>0.04071596614982042</v>
+        <v>0.04343400981035915</v>
       </c>
       <c r="T12">
-        <v>0.04071596614982042</v>
+        <v>0.05922834075548879</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>76.4364136702626</v>
+        <v>80.25908033333333</v>
       </c>
       <c r="H13">
-        <v>76.4364136702626</v>
+        <v>240.777241</v>
       </c>
       <c r="I13">
-        <v>0.1895314003179442</v>
+        <v>0.1929092786303725</v>
       </c>
       <c r="J13">
-        <v>0.1895314003179442</v>
+        <v>0.2157831041178573</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.11604718981771</v>
+        <v>1.1656215</v>
       </c>
       <c r="N13">
-        <v>1.11604718981771</v>
+        <v>2.331243</v>
       </c>
       <c r="O13">
-        <v>0.2564468201337867</v>
+        <v>0.2547755695077563</v>
       </c>
       <c r="P13">
-        <v>0.2564468201337867</v>
+        <v>0.2070626862903617</v>
       </c>
       <c r="Q13">
-        <v>85.30664467644057</v>
+        <v>93.5517096067605</v>
       </c>
       <c r="R13">
-        <v>85.30664467644057</v>
+        <v>561.310257640563</v>
       </c>
       <c r="S13">
-        <v>0.04860472492704057</v>
+        <v>0.0491485713263836</v>
       </c>
       <c r="T13">
-        <v>0.04860472492704057</v>
+        <v>0.04468062919471633</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>81.9095757857405</v>
+        <v>82.109515</v>
       </c>
       <c r="H14">
-        <v>81.9095757857405</v>
+        <v>246.328545</v>
       </c>
       <c r="I14">
-        <v>0.2031026293971707</v>
+        <v>0.1973569500367323</v>
       </c>
       <c r="J14">
-        <v>0.2031026293971707</v>
+        <v>0.2207581491181523</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.28848775673345</v>
+        <v>1.3010185</v>
       </c>
       <c r="N14">
-        <v>1.28848775673345</v>
+        <v>2.602037</v>
       </c>
       <c r="O14">
-        <v>0.2960704448792887</v>
+        <v>0.2843699513758341</v>
       </c>
       <c r="P14">
-        <v>0.2960704448792887</v>
+        <v>0.2311148048688678</v>
       </c>
       <c r="Q14">
-        <v>105.5394855591573</v>
+        <v>106.8259980410275</v>
       </c>
       <c r="R14">
-        <v>105.5394855591573</v>
+        <v>640.9559882461651</v>
       </c>
       <c r="S14">
-        <v>0.06013268584177363</v>
+        <v>0.05612238628562849</v>
       </c>
       <c r="T14">
-        <v>0.06013268584177363</v>
+        <v>0.05102047655665418</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>81.9095757857405</v>
+        <v>82.109515</v>
       </c>
       <c r="H15">
-        <v>81.9095757857405</v>
+        <v>246.328545</v>
       </c>
       <c r="I15">
-        <v>0.2031026293971707</v>
+        <v>0.1973569500367323</v>
       </c>
       <c r="J15">
-        <v>0.2031026293971707</v>
+        <v>0.2207581491181523</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.400165852290775</v>
+        <v>0.4079646666666667</v>
       </c>
       <c r="N15">
-        <v>0.400165852290775</v>
+        <v>1.223894</v>
       </c>
       <c r="O15">
-        <v>0.09195064624718739</v>
+        <v>0.08917082456787383</v>
       </c>
       <c r="P15">
-        <v>0.09195064624718739</v>
+        <v>0.1087071486647492</v>
       </c>
       <c r="Q15">
-        <v>32.77741520507667</v>
+        <v>33.49778091713667</v>
       </c>
       <c r="R15">
-        <v>32.77741520507667</v>
+        <v>301.48002825423</v>
       </c>
       <c r="S15">
-        <v>0.01867541802757284</v>
+        <v>0.0175984819689761</v>
       </c>
       <c r="T15">
-        <v>0.01867541802757284</v>
+        <v>0.02399798893514186</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>81.9095757857405</v>
+        <v>82.109515</v>
       </c>
       <c r="H16">
-        <v>81.9095757857405</v>
+        <v>246.328545</v>
       </c>
       <c r="I16">
-        <v>0.2031026293971707</v>
+        <v>0.1973569500367323</v>
       </c>
       <c r="J16">
-        <v>0.2031026293971707</v>
+        <v>0.2207581491181523</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.222145268297615</v>
+        <v>0.2783573333333333</v>
       </c>
       <c r="N16">
-        <v>0.222145268297615</v>
+        <v>0.835072</v>
       </c>
       <c r="O16">
-        <v>0.05104483769364199</v>
+        <v>0.06084191834713099</v>
       </c>
       <c r="P16">
-        <v>0.05104483769364199</v>
+        <v>0.07417169791646126</v>
       </c>
       <c r="Q16">
-        <v>18.19582468906715</v>
+        <v>22.85578563669333</v>
       </c>
       <c r="R16">
-        <v>18.19582468906715</v>
+        <v>205.70207073024</v>
       </c>
       <c r="S16">
-        <v>0.0103673407527305</v>
+        <v>0.01200757543937368</v>
       </c>
       <c r="T16">
-        <v>0.0103673407527305</v>
+        <v>0.0163740067489887</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>81.9095757857405</v>
+        <v>82.109515</v>
       </c>
       <c r="H17">
-        <v>81.9095757857405</v>
+        <v>246.328545</v>
       </c>
       <c r="I17">
-        <v>0.2031026293971707</v>
+        <v>0.1973569500367323</v>
       </c>
       <c r="J17">
-        <v>0.2031026293971707</v>
+        <v>0.2207581491181523</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.390209524763159</v>
+        <v>0.392036</v>
       </c>
       <c r="N17">
-        <v>0.390209524763159</v>
+        <v>1.176108</v>
       </c>
       <c r="O17">
-        <v>0.08966286795433165</v>
+        <v>0.08568921829902994</v>
       </c>
       <c r="P17">
-        <v>0.08966286795433165</v>
+        <v>0.1044627616458622</v>
       </c>
       <c r="Q17">
-        <v>31.96189664090576</v>
+        <v>32.18988582254</v>
       </c>
       <c r="R17">
-        <v>31.96189664090576</v>
+        <v>289.70897240286</v>
       </c>
       <c r="S17">
-        <v>0.01821076424081607</v>
+        <v>0.0169113627745283</v>
       </c>
       <c r="T17">
-        <v>0.01821076424081607</v>
+        <v>0.02306100591271124</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>81.9095757857405</v>
+        <v>82.109515</v>
       </c>
       <c r="H18">
-        <v>81.9095757857405</v>
+        <v>246.328545</v>
       </c>
       <c r="I18">
-        <v>0.2031026293971707</v>
+        <v>0.1973569500367323</v>
       </c>
       <c r="J18">
-        <v>0.2031026293971707</v>
+        <v>0.2207581491181523</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.93490786483064</v>
+        <v>1.030093333333333</v>
       </c>
       <c r="N18">
-        <v>0.93490786483064</v>
+        <v>3.090279999999999</v>
       </c>
       <c r="O18">
-        <v>0.2148243830917634</v>
+        <v>0.2251525179023748</v>
       </c>
       <c r="P18">
-        <v>0.2148243830917634</v>
+        <v>0.2744809006136978</v>
       </c>
       <c r="Q18">
-        <v>76.57790660703014</v>
+        <v>84.58046400473332</v>
       </c>
       <c r="R18">
-        <v>76.57790660703014</v>
+        <v>761.2241760425999</v>
       </c>
       <c r="S18">
-        <v>0.04363139706456224</v>
+        <v>0.04443541422630345</v>
       </c>
       <c r="T18">
-        <v>0.04363139706456224</v>
+        <v>0.06059389558776345</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>81.9095757857405</v>
+        <v>82.109515</v>
       </c>
       <c r="H19">
-        <v>81.9095757857405</v>
+        <v>246.328545</v>
       </c>
       <c r="I19">
-        <v>0.2031026293971707</v>
+        <v>0.1973569500367323</v>
       </c>
       <c r="J19">
-        <v>0.2031026293971707</v>
+        <v>0.2207581491181523</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.11604718981771</v>
+        <v>1.1656215</v>
       </c>
       <c r="N19">
-        <v>1.11604718981771</v>
+        <v>2.331243</v>
       </c>
       <c r="O19">
-        <v>0.2564468201337867</v>
+        <v>0.2547755695077563</v>
       </c>
       <c r="P19">
-        <v>0.2564468201337867</v>
+        <v>0.2070626862903617</v>
       </c>
       <c r="Q19">
-        <v>91.41495187483643</v>
+        <v>95.70861603857252</v>
       </c>
       <c r="R19">
-        <v>91.41495187483643</v>
+        <v>574.2516962314351</v>
       </c>
       <c r="S19">
-        <v>0.05208502346971537</v>
+        <v>0.05028172934192227</v>
       </c>
       <c r="T19">
-        <v>0.05208502346971537</v>
+        <v>0.04571077537689286</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>76.22606129599269</v>
+        <v>77.886416</v>
       </c>
       <c r="H20">
-        <v>76.22606129599269</v>
+        <v>233.659248</v>
       </c>
       <c r="I20">
-        <v>0.1890098114816657</v>
+        <v>0.1872063854116316</v>
       </c>
       <c r="J20">
-        <v>0.1890098114816657</v>
+        <v>0.2094040019309144</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.28848775673345</v>
+        <v>1.3010185</v>
       </c>
       <c r="N20">
-        <v>1.28848775673345</v>
+        <v>2.602037</v>
       </c>
       <c r="O20">
-        <v>0.2960704448792887</v>
+        <v>0.2843699513758341</v>
       </c>
       <c r="P20">
-        <v>0.2960704448792887</v>
+        <v>0.2311148048688678</v>
       </c>
       <c r="Q20">
-        <v>98.21634672390009</v>
+        <v>101.331668114696</v>
       </c>
       <c r="R20">
-        <v>98.21634672390009</v>
+        <v>607.990008688176</v>
       </c>
       <c r="S20">
-        <v>0.05596021897192725</v>
+        <v>0.05323587071675134</v>
       </c>
       <c r="T20">
-        <v>0.05596021897192725</v>
+        <v>0.04839636504502328</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>76.22606129599269</v>
+        <v>77.886416</v>
       </c>
       <c r="H21">
-        <v>76.22606129599269</v>
+        <v>233.659248</v>
       </c>
       <c r="I21">
-        <v>0.1890098114816657</v>
+        <v>0.1872063854116316</v>
       </c>
       <c r="J21">
-        <v>0.1890098114816657</v>
+        <v>0.2094040019309144</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.400165852290775</v>
+        <v>0.4079646666666667</v>
       </c>
       <c r="N21">
-        <v>0.400165852290775</v>
+        <v>1.223894</v>
       </c>
       <c r="O21">
-        <v>0.09195064624718739</v>
+        <v>0.08917082456787383</v>
       </c>
       <c r="P21">
-        <v>0.09195064624718739</v>
+        <v>0.1087071486647492</v>
       </c>
       <c r="Q21">
-        <v>30.50306678527977</v>
+        <v>31.77490574130134</v>
       </c>
       <c r="R21">
-        <v>30.50306678527977</v>
+        <v>285.974151671712</v>
       </c>
       <c r="S21">
-        <v>0.01737957431279822</v>
+        <v>0.01669334775152638</v>
       </c>
       <c r="T21">
-        <v>0.01737957431279822</v>
+        <v>0.02276371196889734</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>76.22606129599269</v>
+        <v>77.886416</v>
       </c>
       <c r="H22">
-        <v>76.22606129599269</v>
+        <v>233.659248</v>
       </c>
       <c r="I22">
-        <v>0.1890098114816657</v>
+        <v>0.1872063854116316</v>
       </c>
       <c r="J22">
-        <v>0.1890098114816657</v>
+        <v>0.2094040019309144</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.222145268297615</v>
+        <v>0.2783573333333333</v>
       </c>
       <c r="N22">
-        <v>0.222145268297615</v>
+        <v>0.835072</v>
       </c>
       <c r="O22">
-        <v>0.05104483769364199</v>
+        <v>0.06084191834713099</v>
       </c>
       <c r="P22">
-        <v>0.05104483769364199</v>
+        <v>0.07417169791646126</v>
       </c>
       <c r="Q22">
-        <v>16.93325883786874</v>
+        <v>21.68025506065067</v>
       </c>
       <c r="R22">
-        <v>16.93325883786874</v>
+        <v>195.122295545856</v>
       </c>
       <c r="S22">
-        <v>0.009647975149587495</v>
+        <v>0.01138999561527603</v>
       </c>
       <c r="T22">
-        <v>0.009647975149587495</v>
+        <v>0.01553185037371785</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>76.22606129599269</v>
+        <v>77.886416</v>
       </c>
       <c r="H23">
-        <v>76.22606129599269</v>
+        <v>233.659248</v>
       </c>
       <c r="I23">
-        <v>0.1890098114816657</v>
+        <v>0.1872063854116316</v>
       </c>
       <c r="J23">
-        <v>0.1890098114816657</v>
+        <v>0.2094040019309144</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.390209524763159</v>
+        <v>0.392036</v>
       </c>
       <c r="N23">
-        <v>0.390209524763159</v>
+        <v>1.176108</v>
       </c>
       <c r="O23">
-        <v>0.08966286795433165</v>
+        <v>0.08568921829902994</v>
       </c>
       <c r="P23">
-        <v>0.08966286795433165</v>
+        <v>0.1044627616458622</v>
       </c>
       <c r="Q23">
-        <v>29.74413515287674</v>
+        <v>30.534278982976</v>
       </c>
       <c r="R23">
-        <v>29.74413515287674</v>
+        <v>274.808510846784</v>
       </c>
       <c r="S23">
-        <v>0.01694716176895371</v>
+        <v>0.01604156882650963</v>
       </c>
       <c r="T23">
-        <v>0.01694716176895371</v>
+        <v>0.02187492034139877</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>76.22606129599269</v>
+        <v>77.886416</v>
       </c>
       <c r="H24">
-        <v>76.22606129599269</v>
+        <v>233.659248</v>
       </c>
       <c r="I24">
-        <v>0.1890098114816657</v>
+        <v>0.1872063854116316</v>
       </c>
       <c r="J24">
-        <v>0.1890098114816657</v>
+        <v>0.2094040019309144</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.93490786483064</v>
+        <v>1.030093333333333</v>
       </c>
       <c r="N24">
-        <v>0.93490786483064</v>
+        <v>3.090279999999999</v>
       </c>
       <c r="O24">
-        <v>0.2148243830917634</v>
+        <v>0.2251525179023748</v>
       </c>
       <c r="P24">
-        <v>0.2148243830917634</v>
+        <v>0.2744809006136978</v>
       </c>
       <c r="Q24">
-        <v>71.26434421068602</v>
+        <v>80.23027787882664</v>
       </c>
       <c r="R24">
-        <v>71.26434421068602</v>
+        <v>722.0725009094399</v>
       </c>
       <c r="S24">
-        <v>0.04060391614983933</v>
+        <v>0.04214998904283126</v>
       </c>
       <c r="T24">
-        <v>0.04060391614983933</v>
+        <v>0.05747739904210989</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>76.22606129599269</v>
+        <v>77.886416</v>
       </c>
       <c r="H25">
-        <v>76.22606129599269</v>
+        <v>233.659248</v>
       </c>
       <c r="I25">
-        <v>0.1890098114816657</v>
+        <v>0.1872063854116316</v>
       </c>
       <c r="J25">
-        <v>0.1890098114816657</v>
+        <v>0.2094040019309144</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.11604718981771</v>
+        <v>1.1656215</v>
       </c>
       <c r="N25">
-        <v>1.11604718981771</v>
+        <v>2.331243</v>
       </c>
       <c r="O25">
-        <v>0.2564468201337867</v>
+        <v>0.2547755695077563</v>
       </c>
       <c r="P25">
-        <v>0.2564468201337867</v>
+        <v>0.2070626862903617</v>
       </c>
       <c r="Q25">
-        <v>85.07188150026515</v>
+        <v>90.786081047544</v>
       </c>
       <c r="R25">
-        <v>85.07188150026515</v>
+        <v>544.7164862852641</v>
       </c>
       <c r="S25">
-        <v>0.04847096512855965</v>
+        <v>0.04769561345873696</v>
       </c>
       <c r="T25">
-        <v>0.04847096512855965</v>
+        <v>0.04335975515976721</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>39.5149169827131</v>
+        <v>43.48344933333334</v>
       </c>
       <c r="H26">
-        <v>39.5149169827131</v>
+        <v>130.450348</v>
       </c>
       <c r="I26">
-        <v>0.09798101702532691</v>
+        <v>0.1045160349260795</v>
       </c>
       <c r="J26">
-        <v>0.09798101702532691</v>
+        <v>0.11690881126383</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.28848775673345</v>
+        <v>1.3010185</v>
       </c>
       <c r="N26">
-        <v>1.28848775673345</v>
+        <v>2.602037</v>
       </c>
       <c r="O26">
-        <v>0.2960704448792887</v>
+        <v>0.2843699513758341</v>
       </c>
       <c r="P26">
-        <v>0.2960704448792887</v>
+        <v>0.2311148048688678</v>
       </c>
       <c r="Q26">
-        <v>50.91448674056451</v>
+        <v>56.57277202647934</v>
       </c>
       <c r="R26">
-        <v>50.91448674056451</v>
+        <v>339.4366321588761</v>
       </c>
       <c r="S26">
-        <v>0.0290092833004137</v>
+        <v>0.02972121976992421</v>
       </c>
       <c r="T26">
-        <v>0.0290092833004137</v>
+        <v>0.02701935710269137</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>39.5149169827131</v>
+        <v>43.48344933333334</v>
       </c>
       <c r="H27">
-        <v>39.5149169827131</v>
+        <v>130.450348</v>
       </c>
       <c r="I27">
-        <v>0.09798101702532691</v>
+        <v>0.1045160349260795</v>
       </c>
       <c r="J27">
-        <v>0.09798101702532691</v>
+        <v>0.11690881126383</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.400165852290775</v>
+        <v>0.4079646666666667</v>
       </c>
       <c r="N27">
-        <v>0.400165852290775</v>
+        <v>1.223894</v>
       </c>
       <c r="O27">
-        <v>0.09195064624718739</v>
+        <v>0.08917082456787383</v>
       </c>
       <c r="P27">
-        <v>0.09195064624718739</v>
+        <v>0.1087071486647492</v>
       </c>
       <c r="Q27">
-        <v>15.81252043258661</v>
+        <v>17.73971091279023</v>
       </c>
       <c r="R27">
-        <v>15.81252043258661</v>
+        <v>159.657398215112</v>
       </c>
       <c r="S27">
-        <v>0.00900941783543548</v>
+        <v>0.009319781014923209</v>
       </c>
       <c r="T27">
-        <v>0.00900941783543548</v>
+        <v>0.01270882352627628</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>39.5149169827131</v>
+        <v>43.48344933333334</v>
       </c>
       <c r="H28">
-        <v>39.5149169827131</v>
+        <v>130.450348</v>
       </c>
       <c r="I28">
-        <v>0.09798101702532691</v>
+        <v>0.1045160349260795</v>
       </c>
       <c r="J28">
-        <v>0.09798101702532691</v>
+        <v>0.11690881126383</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.222145268297615</v>
+        <v>0.2783573333333333</v>
       </c>
       <c r="N28">
-        <v>0.222145268297615</v>
+        <v>0.835072</v>
       </c>
       <c r="O28">
-        <v>0.05104483769364199</v>
+        <v>0.06084191834713099</v>
       </c>
       <c r="P28">
-        <v>0.05104483769364199</v>
+        <v>0.07417169791646126</v>
       </c>
       <c r="Q28">
-        <v>8.778051834882785</v>
+        <v>12.10393700056178</v>
       </c>
       <c r="R28">
-        <v>8.778051834882785</v>
+        <v>108.935433005056</v>
       </c>
       <c r="S28">
-        <v>0.005001425111115785</v>
+        <v>0.006358956062938421</v>
       </c>
       <c r="T28">
-        <v>0.005001425111115785</v>
+        <v>0.008671325032833384</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>39.5149169827131</v>
+        <v>43.48344933333334</v>
       </c>
       <c r="H29">
-        <v>39.5149169827131</v>
+        <v>130.450348</v>
       </c>
       <c r="I29">
-        <v>0.09798101702532691</v>
+        <v>0.1045160349260795</v>
       </c>
       <c r="J29">
-        <v>0.09798101702532691</v>
+        <v>0.11690881126383</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.390209524763159</v>
+        <v>0.392036</v>
       </c>
       <c r="N29">
-        <v>0.390209524763159</v>
+        <v>1.176108</v>
       </c>
       <c r="O29">
-        <v>0.08966286795433165</v>
+        <v>0.08568921829902994</v>
       </c>
       <c r="P29">
-        <v>0.08966286795433165</v>
+        <v>0.1044627616458622</v>
       </c>
       <c r="Q29">
-        <v>15.41909697688016</v>
+        <v>17.04707754284267</v>
       </c>
       <c r="R29">
-        <v>15.41909697688016</v>
+        <v>153.423697885584</v>
       </c>
       <c r="S29">
-        <v>0.008785258991573008</v>
+        <v>0.008955897332529864</v>
       </c>
       <c r="T29">
-        <v>0.008785258991573008</v>
+        <v>0.01221261728535456</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>39.5149169827131</v>
+        <v>43.48344933333334</v>
       </c>
       <c r="H30">
-        <v>39.5149169827131</v>
+        <v>130.450348</v>
       </c>
       <c r="I30">
-        <v>0.09798101702532691</v>
+        <v>0.1045160349260795</v>
       </c>
       <c r="J30">
-        <v>0.09798101702532691</v>
+        <v>0.11690881126383</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.93490786483064</v>
+        <v>1.030093333333333</v>
       </c>
       <c r="N30">
-        <v>0.93490786483064</v>
+        <v>3.090279999999999</v>
       </c>
       <c r="O30">
-        <v>0.2148243830917634</v>
+        <v>0.2251525179023748</v>
       </c>
       <c r="P30">
-        <v>0.2148243830917634</v>
+        <v>0.2744809006136978</v>
       </c>
       <c r="Q30">
-        <v>36.94280666526831</v>
+        <v>44.79201126860444</v>
       </c>
       <c r="R30">
-        <v>36.94280666526831</v>
+        <v>403.12810141744</v>
       </c>
       <c r="S30">
-        <v>0.02104871153716942</v>
+        <v>0.02353204842477934</v>
       </c>
       <c r="T30">
-        <v>0.02104871153716942</v>
+        <v>0.03208923580537289</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>39.5149169827131</v>
+        <v>43.48344933333334</v>
       </c>
       <c r="H31">
-        <v>39.5149169827131</v>
+        <v>130.450348</v>
       </c>
       <c r="I31">
-        <v>0.09798101702532691</v>
+        <v>0.1045160349260795</v>
       </c>
       <c r="J31">
-        <v>0.09798101702532691</v>
+        <v>0.11690881126383</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.11604718981771</v>
+        <v>1.1656215</v>
       </c>
       <c r="N31">
-        <v>1.11604718981771</v>
+        <v>2.331243</v>
       </c>
       <c r="O31">
-        <v>0.2564468201337867</v>
+        <v>0.2547755695077563</v>
       </c>
       <c r="P31">
-        <v>0.2564468201337867</v>
+        <v>0.2070626862903617</v>
       </c>
       <c r="Q31">
-        <v>44.10051205443706</v>
+        <v>50.68524343709401</v>
       </c>
       <c r="R31">
-        <v>44.10051205443706</v>
+        <v>304.1114606225641</v>
       </c>
       <c r="S31">
-        <v>0.02512692024961951</v>
+        <v>0.02662813232098445</v>
       </c>
       <c r="T31">
-        <v>0.02512692024961951</v>
+        <v>0.02420745251130154</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>83.78265396387459</v>
+        <v>86.856657</v>
       </c>
       <c r="H32">
-        <v>83.78265396387459</v>
+        <v>173.713314</v>
       </c>
       <c r="I32">
-        <v>0.2077471059360386</v>
+        <v>0.2087670949695245</v>
       </c>
       <c r="J32">
-        <v>0.2077471059360386</v>
+        <v>0.1556808191913788</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.28848775673345</v>
+        <v>1.3010185</v>
       </c>
       <c r="N32">
-        <v>1.28848775673345</v>
+        <v>2.602037</v>
       </c>
       <c r="O32">
-        <v>0.2960704448792887</v>
+        <v>0.2843699513758341</v>
       </c>
       <c r="P32">
-        <v>0.2960704448792887</v>
+        <v>0.2311148048688678</v>
       </c>
       <c r="Q32">
-        <v>107.9529238590877</v>
+        <v>113.0021176051545</v>
       </c>
       <c r="R32">
-        <v>107.9529238590877</v>
+        <v>452.008470420618</v>
       </c>
       <c r="S32">
-        <v>0.06150777807686767</v>
+        <v>0.05936708864535782</v>
       </c>
       <c r="T32">
-        <v>0.06150777807686767</v>
+        <v>0.03598014214924099</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>83.78265396387459</v>
+        <v>86.856657</v>
       </c>
       <c r="H33">
-        <v>83.78265396387459</v>
+        <v>173.713314</v>
       </c>
       <c r="I33">
-        <v>0.2077471059360386</v>
+        <v>0.2087670949695245</v>
       </c>
       <c r="J33">
-        <v>0.2077471059360386</v>
+        <v>0.1556808191913788</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.400165852290775</v>
+        <v>0.4079646666666667</v>
       </c>
       <c r="N33">
-        <v>0.400165852290775</v>
+        <v>1.223894</v>
       </c>
       <c r="O33">
-        <v>0.09195064624718739</v>
+        <v>0.08917082456787383</v>
       </c>
       <c r="P33">
-        <v>0.09195064624718739</v>
+        <v>0.1087071486647492</v>
       </c>
       <c r="Q33">
-        <v>33.52695713063696</v>
+        <v>35.434447120786</v>
       </c>
       <c r="R33">
-        <v>33.52695713063696</v>
+        <v>212.606682724716</v>
       </c>
       <c r="S33">
-        <v>0.01910248064680165</v>
+        <v>0.01861593400107213</v>
       </c>
       <c r="T33">
-        <v>0.01910248064680165</v>
+        <v>0.01692361795608715</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>83.78265396387459</v>
+        <v>86.856657</v>
       </c>
       <c r="H34">
-        <v>83.78265396387459</v>
+        <v>173.713314</v>
       </c>
       <c r="I34">
-        <v>0.2077471059360386</v>
+        <v>0.2087670949695245</v>
       </c>
       <c r="J34">
-        <v>0.2077471059360386</v>
+        <v>0.1556808191913788</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.222145268297615</v>
+        <v>0.2783573333333333</v>
       </c>
       <c r="N34">
-        <v>0.222145268297615</v>
+        <v>0.835072</v>
       </c>
       <c r="O34">
-        <v>0.05104483769364199</v>
+        <v>0.06084191834713099</v>
       </c>
       <c r="P34">
-        <v>0.05104483769364199</v>
+        <v>0.07417169791646126</v>
       </c>
       <c r="Q34">
-        <v>18.61192014349116</v>
+        <v>24.177187424768</v>
       </c>
       <c r="R34">
-        <v>18.61192014349116</v>
+        <v>145.063124548608</v>
       </c>
       <c r="S34">
-        <v>0.01060441730382894</v>
+        <v>0.01270179054570355</v>
       </c>
       <c r="T34">
-        <v>0.01060441730382894</v>
+        <v>0.01154711069245017</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>83.78265396387459</v>
+        <v>86.856657</v>
       </c>
       <c r="H35">
-        <v>83.78265396387459</v>
+        <v>173.713314</v>
       </c>
       <c r="I35">
-        <v>0.2077471059360386</v>
+        <v>0.2087670949695245</v>
       </c>
       <c r="J35">
-        <v>0.2077471059360386</v>
+        <v>0.1556808191913788</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.390209524763159</v>
+        <v>0.392036</v>
       </c>
       <c r="N35">
-        <v>0.390209524763159</v>
+        <v>1.176108</v>
       </c>
       <c r="O35">
-        <v>0.08966286795433165</v>
+        <v>0.08568921829902994</v>
       </c>
       <c r="P35">
-        <v>0.08966286795433165</v>
+        <v>0.1044627616458622</v>
       </c>
       <c r="Q35">
-        <v>32.69278958663971</v>
+        <v>34.050936383652</v>
       </c>
       <c r="R35">
-        <v>32.69278958663971</v>
+        <v>204.305618301912</v>
       </c>
       <c r="S35">
-        <v>0.01862720132743758</v>
+        <v>0.0178890891744979</v>
       </c>
       <c r="T35">
-        <v>0.01862720132743758</v>
+        <v>0.01626284830802157</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>83.78265396387459</v>
+        <v>86.856657</v>
       </c>
       <c r="H36">
-        <v>83.78265396387459</v>
+        <v>173.713314</v>
       </c>
       <c r="I36">
-        <v>0.2077471059360386</v>
+        <v>0.2087670949695245</v>
       </c>
       <c r="J36">
-        <v>0.2077471059360386</v>
+        <v>0.1556808191913788</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.93490786483064</v>
+        <v>1.030093333333333</v>
       </c>
       <c r="N36">
-        <v>0.93490786483064</v>
+        <v>3.090279999999999</v>
       </c>
       <c r="O36">
-        <v>0.2148243830917634</v>
+        <v>0.2251525179023748</v>
       </c>
       <c r="P36">
-        <v>0.2148243830917634</v>
+        <v>0.2744809006136978</v>
       </c>
       <c r="Q36">
-        <v>78.32906212721036</v>
+        <v>89.47046333131998</v>
       </c>
       <c r="R36">
-        <v>78.32906212721036</v>
+        <v>536.8227799879199</v>
       </c>
       <c r="S36">
-        <v>0.04462914387180871</v>
+        <v>0.04700443708755263</v>
       </c>
       <c r="T36">
-        <v>0.04462914387180871</v>
+        <v>0.0427314114599279</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>83.78265396387459</v>
+        <v>86.856657</v>
       </c>
       <c r="H37">
-        <v>83.78265396387459</v>
+        <v>173.713314</v>
       </c>
       <c r="I37">
-        <v>0.2077471059360386</v>
+        <v>0.2087670949695245</v>
       </c>
       <c r="J37">
-        <v>0.2077471059360386</v>
+        <v>0.1556808191913788</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.11604718981771</v>
+        <v>1.1656215</v>
       </c>
       <c r="N37">
-        <v>1.11604718981771</v>
+        <v>2.331243</v>
       </c>
       <c r="O37">
-        <v>0.2564468201337867</v>
+        <v>0.2547755695077563</v>
       </c>
       <c r="P37">
-        <v>0.2564468201337867</v>
+        <v>0.2070626862903617</v>
       </c>
       <c r="Q37">
-        <v>93.50539551185186</v>
+        <v>101.2419868173255</v>
       </c>
       <c r="R37">
-        <v>93.50539551185186</v>
+        <v>404.967947269302</v>
       </c>
       <c r="S37">
-        <v>0.05327608470929403</v>
+        <v>0.05318875551534044</v>
       </c>
       <c r="T37">
-        <v>0.05327608470929403</v>
+        <v>0.03223568862565098</v>
       </c>
     </row>
   </sheetData>
